--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50_no_test.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50_no_test.xlsx
@@ -56,12 +56,12 @@
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
@@ -77,6 +77,9 @@
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Clicks per session</t>
   </si>
   <si>
@@ -89,70 +92,67 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
 </sst>
 </file>
@@ -649,13 +649,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -681,16 +681,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -905,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -937,13 +937,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -972,25 +972,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1036,28 +1036,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1164,13 +1164,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1298,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1359,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1806,12 +1806,12 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1820,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2492,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2515,16 +2515,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
